--- a/data/trans_orig/Q03B_LAB-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q03B_LAB-Clase-trans_orig.xlsx
@@ -11475,7 +11475,7 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
@@ -26774,7 +26774,7 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
@@ -42073,7 +42073,7 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
